--- a/posts/Week 11/minerva_cmiller.xlsx
+++ b/posts/Week 11/minerva_cmiller.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c8ea0e04da9d5f3/Desktop/semester_fall_2023/cognition_lab/deuxieme_cognition_experiements/posts/Week 11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{BBB37EF1-FD1C-49C8-9F21-CE1416F128D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90EC9259-F995-49D9-A2CA-50AD311595AD}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{BBB37EF1-FD1C-49C8-9F21-CE1416F128D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B6AC56-8FA9-4BE3-BC35-ADEF9056049B}"/>
   <bookViews>
-    <workbookView xWindow="12195" yWindow="0" windowWidth="8400" windowHeight="11625" xr2:uid="{9F9218C0-D683-42B6-90AF-5B56BBA11140}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{9F9218C0-D683-42B6-90AF-5B56BBA11140}"/>
   </bookViews>
   <sheets>
     <sheet name="MINERVA II" sheetId="1" r:id="rId1"/>
     <sheet name="MIINERVA TUTORIAL" sheetId="2" r:id="rId2"/>
+    <sheet name="Thursday Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>What is MINERVA II</t>
   </si>
@@ -322,6 +323,56 @@
   </si>
   <si>
     <t>Similarities</t>
+  </si>
+  <si>
+    <t>Thursday November 16 Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instance Theory: every new experience gets added to a memory bank. We have an infinite number of memory traces that record the detail of the patterns of our experiences. The cue causes memories to be activated in proportion to their similarity. Memory responds to the pattern in the present moment = Reminded of something. When I am looking at something I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">activated memories (the echo). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Experience what is being perceived and what you are being reminded of. What is being stored? what you are being reminded of or the perceptual experience?          Feature vectors are a numbering system to represent a pattern. Although this is a series of random numbers it could hypothetically represent faces: ex. thin eyebrow pattern : 1 0 00 1 0-1 and 1 means face has thin eyebrow, 0 means it is unknown if face has thin eyebrow and -1 is the absence of feature.                                                                                                                                                  If creating random patterns on average those patterns dont have very high similarity, somewhat like a word memory experiment for visual patterns. ex. if words were shown in another language that never seen before they would just be stored in a memory bank. if values go larger than 1 or -1 then the computational similarity Ex. three points in space. One point is far away, two points are close together. can calculate the distance of points as a measure of similarity. lines and an angle can be used, short angle = a greater similarity. one dot way out on the grid with a similar angle, but from a length perspective there is a different similarity. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -368,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -413,15 +464,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,43 +585,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,6 +650,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,7 +958,7 @@
   </sheetPr>
   <dimension ref="C2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -806,17 +971,17 @@
   <sheetData>
     <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -853,7 +1018,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -933,7 +1098,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="20">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1">
@@ -969,7 +1134,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="20">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
@@ -1005,7 +1170,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="20">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
@@ -1041,7 +1206,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="20">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
@@ -1077,7 +1242,7 @@
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="20">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
@@ -1113,7 +1278,7 @@
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="20">
+      <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1">
@@ -1149,7 +1314,7 @@
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="20">
+      <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
@@ -1185,7 +1350,7 @@
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="20">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1">
@@ -1235,8 +1400,8 @@
   </sheetPr>
   <dimension ref="A2:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,189 +1411,189 @@
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="C9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1445,4 +1610,371 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18EE6B1-B3B2-4A1F-925F-A96698EE4BB0}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="E3:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="24"/>
+    </row>
+    <row r="6" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="27"/>
+    </row>
+    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
+    </row>
+    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="27"/>
+    </row>
+    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="27"/>
+    </row>
+    <row r="20" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="27"/>
+    </row>
+    <row r="21" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
+    </row>
+    <row r="22" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="27"/>
+    </row>
+    <row r="23" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:S23"/>
+    <mergeCell ref="E4:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/posts/Week 11/minerva_cmiller.xlsx
+++ b/posts/Week 11/minerva_cmiller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c8ea0e04da9d5f3/Desktop/semester_fall_2023/cognition_lab/deuxieme_cognition_experiements/posts/Week 11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{BBB37EF1-FD1C-49C8-9F21-CE1416F128D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B6AC56-8FA9-4BE3-BC35-ADEF9056049B}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="8_{BBB37EF1-FD1C-49C8-9F21-CE1416F128D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A5D7596-8372-4D2D-9646-8435BB2176F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{9F9218C0-D683-42B6-90AF-5B56BBA11140}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9F9218C0-D683-42B6-90AF-5B56BBA11140}"/>
   </bookViews>
   <sheets>
     <sheet name="MINERVA II" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>What is MINERVA II</t>
   </si>
@@ -374,12 +374,33 @@
       <t xml:space="preserve">Experience what is being perceived and what you are being reminded of. What is being stored? what you are being reminded of or the perceptual experience?          Feature vectors are a numbering system to represent a pattern. Although this is a series of random numbers it could hypothetically represent faces: ex. thin eyebrow pattern : 1 0 00 1 0-1 and 1 means face has thin eyebrow, 0 means it is unknown if face has thin eyebrow and -1 is the absence of feature.                                                                                                                                                  If creating random patterns on average those patterns dont have very high similarity, somewhat like a word memory experiment for visual patterns. ex. if words were shown in another language that never seen before they would just be stored in a memory bank. if values go larger than 1 or -1 then the computational similarity Ex. three points in space. One point is far away, two points are close together. can calculate the distance of points as a measure of similarity. lines and an angle can be used, short angle = a greater similarity. one dot way out on the grid with a similar angle, but from a length perspective there is a different similarity. </t>
     </r>
   </si>
+  <si>
+    <t>Activations(Similarity Raised to Exponent 3)</t>
+  </si>
+  <si>
+    <t>Exponent</t>
+  </si>
+  <si>
+    <t>Weighted Memory(Memory Trace * Activation)</t>
+  </si>
+  <si>
+    <t>Global Activation</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +431,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -544,38 +578,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0066"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0066"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0066"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0066"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,24 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,7 +823,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +837,196 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,6 +1048,1115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Cue Versus Echo for Activation of Memory Trace with Correlation = 0.954</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10278931908444802"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MINERVA II'!$P$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'MINERVA II'!$Q$25:$Z$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE6F-4B00-8810-D52372C217E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MINERVA II'!$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Echo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'MINERVA II'!$Q$26:$Z$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3074931908345082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4923402130638075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9249068905284452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5154323951168185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9937360975259701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.603789487130804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5154323951168185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.132846094810755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.3722040950610923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9682209740112704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE6F-4B00-8810-D52372C217E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2030244367"/>
+        <c:axId val="626166175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2030244367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="626166175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626166175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030244367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FF0066">
+            <a:alpha val="16000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FF0066">
+        <a:alpha val="34000"/>
+      </a:srgbClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="FF0066">
+          <a:alpha val="32000"/>
+        </a:srgbClr>
+      </a:solidFill>
+      <a:bevel/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>964405</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE3D5A0-AE48-0EB4-C6F0-D705BEF5E899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,440 +2463,1132 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C2:O20"/>
+  <dimension ref="C2:Z27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="12" width="5.7109375" style="37" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="37"/>
+    <col min="14" max="14" width="13" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="37" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="37" customWidth="1"/>
+    <col min="17" max="26" width="7.7109375" style="37" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+    <row r="2" spans="3:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
+    </row>
+    <row r="4" spans="3:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
+    </row>
+    <row r="5" spans="3:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="3:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1</v>
+      </c>
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="O8" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="N10" s="50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="1">
-        <f>CORREL(C7:L7, C11:L11)</f>
+      <c r="O10" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C11" s="60">
+        <v>1</v>
+      </c>
+      <c r="D11" s="61">
+        <v>0</v>
+      </c>
+      <c r="E11" s="61">
+        <v>0</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0</v>
+      </c>
+      <c r="G11" s="61">
+        <v>1</v>
+      </c>
+      <c r="H11" s="61">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="61">
+        <v>0</v>
+      </c>
+      <c r="J11" s="61">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="61">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="62">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="63">
+        <f>CORREL(C$7:L$7, C11:L11)</f>
         <v>0.80178372573727297</v>
       </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="1" t="e">
-        <f t="shared" ref="O12:O20" si="0">CORREL(C8:L8, C12:L12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="1" t="e">
+      <c r="O11" s="63">
+        <f>N11^O$9</f>
+        <v>0.51543239511681815</v>
+      </c>
+      <c r="Q11" s="64">
+        <f>C11*$O11</f>
+        <v>0.51543239511681815</v>
+      </c>
+      <c r="R11" s="65">
+        <f t="shared" ref="R11:Z11" si="0">D11*$O11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="65">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="T11" s="65">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="65">
         <f t="shared" si="0"/>
-        <v>0.83653628771412292</v>
-      </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
+        <v>0.51543239511681815</v>
+      </c>
+      <c r="V11" s="65">
         <f t="shared" si="0"/>
-        <v>0.41998195157666685</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O17" s="1">
+        <v>-0.51543239511681815</v>
+      </c>
+      <c r="W11" s="65">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="65">
+        <f t="shared" si="0"/>
+        <v>-0.51543239511681815</v>
+      </c>
+      <c r="Y11" s="65">
+        <f t="shared" si="0"/>
+        <v>-0.51543239511681815</v>
+      </c>
+      <c r="Z11" s="66">
+        <f t="shared" si="0"/>
+        <v>-0.51543239511681815</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C12" s="67">
+        <v>1</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0</v>
+      </c>
+      <c r="E12" s="68">
+        <v>1</v>
+      </c>
+      <c r="F12" s="68">
+        <v>0</v>
+      </c>
+      <c r="G12" s="68">
+        <v>0</v>
+      </c>
+      <c r="H12" s="68">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="68">
+        <v>0</v>
+      </c>
+      <c r="J12" s="68">
+        <v>0</v>
+      </c>
+      <c r="K12" s="68">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="69">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="70">
+        <f>CORREL(C$7:L$7, C12:L12)</f>
+        <v>0.71428571428571441</v>
+      </c>
+      <c r="O12" s="70">
+        <f t="shared" ref="O12:O20" si="1">N12^O$9</f>
+        <v>0.36443148688046673</v>
+      </c>
+      <c r="Q12" s="71">
+        <f t="shared" ref="Q12:Q20" si="2">C12*$O12</f>
+        <v>0.36443148688046673</v>
+      </c>
+      <c r="R12" s="72">
+        <f t="shared" ref="R12:R20" si="3">D12*$O12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="72">
+        <f t="shared" ref="S12:S20" si="4">E12*$O12</f>
+        <v>0.36443148688046673</v>
+      </c>
+      <c r="T12" s="72">
+        <f t="shared" ref="T12:T20" si="5">F12*$O12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="72">
+        <f t="shared" ref="U12:U20" si="6">G12*$O12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="72">
+        <f t="shared" ref="V12:V20" si="7">H12*$O12</f>
+        <v>-0.36443148688046673</v>
+      </c>
+      <c r="W12" s="72">
+        <f t="shared" ref="W12:W20" si="8">I12*$O12</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="72">
+        <f t="shared" ref="X12:X20" si="9">J12*$O12</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="72">
+        <f t="shared" ref="Y12:Y20" si="10">K12*$O12</f>
+        <v>-0.36443148688046673</v>
+      </c>
+      <c r="Z12" s="73">
+        <f t="shared" ref="Z12:Z20" si="11">L12*$O12</f>
+        <v>-0.36443148688046673</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C13" s="67">
+        <v>1</v>
+      </c>
+      <c r="D13" s="68">
+        <v>1</v>
+      </c>
+      <c r="E13" s="68">
+        <v>1</v>
+      </c>
+      <c r="F13" s="68">
+        <v>1</v>
+      </c>
+      <c r="G13" s="68">
+        <v>1</v>
+      </c>
+      <c r="H13" s="68">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="68">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="68">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="68">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="69">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="70">
+        <f>CORREL(C$7:L$7, C13:L13)</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="72">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="72">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="72">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="72">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="W13" s="72">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="X13" s="72">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="72">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="73">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C14" s="67">
+        <v>0</v>
+      </c>
+      <c r="D14" s="68">
+        <v>1</v>
+      </c>
+      <c r="E14" s="68">
+        <v>1</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0</v>
+      </c>
+      <c r="G14" s="68">
+        <v>1</v>
+      </c>
+      <c r="H14" s="68">
+        <v>0</v>
+      </c>
+      <c r="I14" s="68">
+        <v>0</v>
+      </c>
+      <c r="J14" s="68">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="68">
+        <v>0</v>
+      </c>
+      <c r="L14" s="69">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="70">
+        <f>CORREL(C$7:L$7, C14:L14)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O14" s="70">
+        <f t="shared" si="1"/>
+        <v>0.3644314868804665</v>
+      </c>
+      <c r="Q14" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="72">
+        <f t="shared" si="3"/>
+        <v>0.3644314868804665</v>
+      </c>
+      <c r="S14" s="72">
+        <f t="shared" si="4"/>
+        <v>0.3644314868804665</v>
+      </c>
+      <c r="T14" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="72">
+        <f t="shared" si="6"/>
+        <v>0.3644314868804665</v>
+      </c>
+      <c r="V14" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="72">
+        <f t="shared" si="9"/>
+        <v>-0.3644314868804665</v>
+      </c>
+      <c r="Y14" s="72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="73">
+        <f t="shared" si="11"/>
+        <v>-0.3644314868804665</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C15" s="67">
+        <v>1</v>
+      </c>
+      <c r="D15" s="68">
+        <v>1</v>
+      </c>
+      <c r="E15" s="68">
+        <v>1</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0</v>
+      </c>
+      <c r="G15" s="68">
+        <v>1</v>
+      </c>
+      <c r="H15" s="68">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="68">
+        <v>0</v>
+      </c>
+      <c r="J15" s="68">
+        <v>0</v>
+      </c>
+      <c r="K15" s="68">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="69">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="70">
+        <f>CORREL(C$7:L$7, C15:L15)</f>
+        <v>0.84270097160038426</v>
+      </c>
+      <c r="O15" s="70">
+        <f t="shared" si="1"/>
+        <v>0.59843982041186683</v>
+      </c>
+      <c r="Q15" s="71">
+        <f t="shared" si="2"/>
+        <v>0.59843982041186683</v>
+      </c>
+      <c r="R15" s="72">
+        <f t="shared" si="3"/>
+        <v>0.59843982041186683</v>
+      </c>
+      <c r="S15" s="72">
+        <f t="shared" si="4"/>
+        <v>0.59843982041186683</v>
+      </c>
+      <c r="T15" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="72">
+        <f t="shared" si="6"/>
+        <v>0.59843982041186683</v>
+      </c>
+      <c r="V15" s="72">
+        <f t="shared" si="7"/>
+        <v>-0.59843982041186683</v>
+      </c>
+      <c r="W15" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="72">
+        <f t="shared" si="10"/>
+        <v>-0.59843982041186683</v>
+      </c>
+      <c r="Z15" s="73">
+        <f t="shared" si="11"/>
+        <v>-0.59843982041186683</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C16" s="67">
+        <v>0</v>
+      </c>
+      <c r="D16" s="68">
+        <v>1</v>
+      </c>
+      <c r="E16" s="68">
+        <v>1</v>
+      </c>
+      <c r="F16" s="68">
+        <v>1</v>
+      </c>
+      <c r="G16" s="68">
+        <v>1</v>
+      </c>
+      <c r="H16" s="68">
+        <v>0</v>
+      </c>
+      <c r="I16" s="68">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="68">
+        <v>0</v>
+      </c>
+      <c r="K16" s="68">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="69">
+        <v>0</v>
+      </c>
+      <c r="N16" s="70">
+        <f>CORREL(C$7:L$7, C16:L16)</f>
+        <v>0.80178372573727319</v>
+      </c>
+      <c r="O16" s="70">
+        <f t="shared" si="1"/>
+        <v>0.51543239511681849</v>
+      </c>
+      <c r="Q16" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="72">
+        <f t="shared" si="3"/>
+        <v>0.51543239511681849</v>
+      </c>
+      <c r="S16" s="72">
+        <f t="shared" si="4"/>
+        <v>0.51543239511681849</v>
+      </c>
+      <c r="T16" s="72">
+        <f t="shared" si="5"/>
+        <v>0.51543239511681849</v>
+      </c>
+      <c r="U16" s="72">
+        <f t="shared" si="6"/>
+        <v>0.51543239511681849</v>
+      </c>
+      <c r="V16" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="72">
+        <f t="shared" si="8"/>
+        <v>-0.51543239511681849</v>
+      </c>
+      <c r="X16" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="72">
+        <f t="shared" si="10"/>
+        <v>-0.51543239511681849</v>
+      </c>
+      <c r="Z16" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" s="67">
+        <v>1</v>
+      </c>
+      <c r="D17" s="68">
+        <v>1</v>
+      </c>
+      <c r="E17" s="68">
+        <v>1</v>
+      </c>
+      <c r="F17" s="68">
+        <v>0</v>
+      </c>
+      <c r="G17" s="68">
+        <v>0</v>
+      </c>
+      <c r="H17" s="68">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="68">
+        <v>0</v>
+      </c>
+      <c r="J17" s="68">
+        <v>0</v>
+      </c>
+      <c r="K17" s="68">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="69">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="70">
+        <f>CORREL(C$7:L$7, C17:L17)</f>
         <v>0.77459666924148329</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.67763092717893858</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84270097160038437</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.41998195157666685</v>
+      <c r="O17" s="70">
+        <f t="shared" si="1"/>
+        <v>0.46475800154488989</v>
+      </c>
+      <c r="Q17" s="71">
+        <f t="shared" si="2"/>
+        <v>0.46475800154488989</v>
+      </c>
+      <c r="R17" s="72">
+        <f t="shared" si="3"/>
+        <v>0.46475800154488989</v>
+      </c>
+      <c r="S17" s="72">
+        <f t="shared" si="4"/>
+        <v>0.46475800154488989</v>
+      </c>
+      <c r="T17" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="72">
+        <f t="shared" si="7"/>
+        <v>-0.46475800154488989</v>
+      </c>
+      <c r="W17" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="72">
+        <f t="shared" si="10"/>
+        <v>-0.46475800154488989</v>
+      </c>
+      <c r="Z17" s="73">
+        <f t="shared" si="11"/>
+        <v>-0.46475800154488989</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" s="67">
+        <v>0</v>
+      </c>
+      <c r="D18" s="68">
+        <v>1</v>
+      </c>
+      <c r="E18" s="68">
+        <v>1</v>
+      </c>
+      <c r="F18" s="68">
+        <v>0</v>
+      </c>
+      <c r="G18" s="68">
+        <v>0</v>
+      </c>
+      <c r="H18" s="68">
+        <v>0</v>
+      </c>
+      <c r="I18" s="68">
+        <v>0</v>
+      </c>
+      <c r="J18" s="68">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="68">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="69">
+        <v>0</v>
+      </c>
+      <c r="N18" s="70">
+        <f>CORREL(C$7:L$7, C18:L18)</f>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="O18" s="70">
+        <f t="shared" si="1"/>
+        <v>0.25298221281347039</v>
+      </c>
+      <c r="Q18" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="72">
+        <f t="shared" si="3"/>
+        <v>0.25298221281347039</v>
+      </c>
+      <c r="S18" s="72">
+        <f t="shared" si="4"/>
+        <v>0.25298221281347039</v>
+      </c>
+      <c r="T18" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="72">
+        <f t="shared" si="9"/>
+        <v>-0.25298221281347039</v>
+      </c>
+      <c r="Y18" s="72">
+        <f t="shared" si="10"/>
+        <v>-0.25298221281347039</v>
+      </c>
+      <c r="Z18" s="73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="67">
+        <v>0</v>
+      </c>
+      <c r="D19" s="68">
+        <v>1</v>
+      </c>
+      <c r="E19" s="68">
+        <v>0</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0</v>
+      </c>
+      <c r="G19" s="68">
+        <v>0</v>
+      </c>
+      <c r="H19" s="68">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="68">
+        <v>0</v>
+      </c>
+      <c r="J19" s="68">
+        <v>0</v>
+      </c>
+      <c r="K19" s="68">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="69">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="70">
+        <f>CORREL(C$7:L$7, C19:L19)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="O19" s="70">
+        <f t="shared" si="1"/>
+        <v>0.29629629629629595</v>
+      </c>
+      <c r="Q19" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="72">
+        <f t="shared" si="3"/>
+        <v>0.29629629629629595</v>
+      </c>
+      <c r="S19" s="72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="72">
+        <f t="shared" si="7"/>
+        <v>-0.29629629629629595</v>
+      </c>
+      <c r="W19" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="72">
+        <f t="shared" si="10"/>
+        <v>-0.29629629629629595</v>
+      </c>
+      <c r="Z19" s="73">
+        <f t="shared" si="11"/>
+        <v>-0.29629629629629595</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="74">
+        <v>1</v>
+      </c>
+      <c r="D20" s="75">
+        <v>0</v>
+      </c>
+      <c r="E20" s="75">
+        <v>1</v>
+      </c>
+      <c r="F20" s="75">
+        <v>0</v>
+      </c>
+      <c r="G20" s="75">
+        <v>0</v>
+      </c>
+      <c r="H20" s="75">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="75">
+        <v>0</v>
+      </c>
+      <c r="J20" s="75">
+        <v>0</v>
+      </c>
+      <c r="K20" s="75">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="76">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="51">
+        <f>CORREL(C$7:L$7, C20:L20)</f>
+        <v>0.71428571428571441</v>
+      </c>
+      <c r="O20" s="51">
+        <f t="shared" si="1"/>
+        <v>0.36443148688046673</v>
+      </c>
+      <c r="Q20" s="77">
+        <f t="shared" si="2"/>
+        <v>0.36443148688046673</v>
+      </c>
+      <c r="R20" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="78">
+        <f t="shared" si="4"/>
+        <v>0.36443148688046673</v>
+      </c>
+      <c r="T20" s="78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="78">
+        <f t="shared" si="7"/>
+        <v>-0.36443148688046673</v>
+      </c>
+      <c r="W20" s="78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="78">
+        <f t="shared" si="10"/>
+        <v>-0.36443148688046673</v>
+      </c>
+      <c r="Z20" s="79">
+        <f t="shared" si="11"/>
+        <v>-0.36443148688046673</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="N22" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="O23" s="37">
+        <f>SUM(O12:O21)</f>
+        <v>4.2212031868247406</v>
+      </c>
+      <c r="Q23" s="81">
+        <f>SUM(Q11:Q20)</f>
+        <v>3.3074931908345082</v>
+      </c>
+      <c r="R23" s="81">
+        <f t="shared" ref="R23:Z23" si="12">SUM(R11:R20)</f>
+        <v>3.4923402130638075</v>
+      </c>
+      <c r="S23" s="81">
+        <f t="shared" si="12"/>
+        <v>3.9249068905284452</v>
+      </c>
+      <c r="T23" s="81">
+        <f t="shared" si="12"/>
+        <v>1.5154323951168185</v>
+      </c>
+      <c r="U23" s="81">
+        <f t="shared" si="12"/>
+        <v>2.9937360975259701</v>
+      </c>
+      <c r="V23" s="81">
+        <f t="shared" si="12"/>
+        <v>-3.603789487130804</v>
+      </c>
+      <c r="W23" s="81">
+        <f t="shared" si="12"/>
+        <v>-1.5154323951168185</v>
+      </c>
+      <c r="X23" s="81">
+        <f t="shared" si="12"/>
+        <v>-2.132846094810755</v>
+      </c>
+      <c r="Y23" s="81">
+        <f t="shared" si="12"/>
+        <v>-4.3722040950610923</v>
+      </c>
+      <c r="Z23" s="81">
+        <f t="shared" si="12"/>
+        <v>-3.9682209740112704</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="P25" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="37">
+        <f>C7</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="37">
+        <f t="shared" ref="R25:Z25" si="13">D7</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="37">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="37">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="37">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="37">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="W25" s="37">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="X25" s="37">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Y25" s="37">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="Z25" s="37">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="P26" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="81">
+        <f>Q23</f>
+        <v>3.3074931908345082</v>
+      </c>
+      <c r="R26" s="81">
+        <f t="shared" ref="R26:Z26" si="14">R23</f>
+        <v>3.4923402130638075</v>
+      </c>
+      <c r="S26" s="81">
+        <f t="shared" si="14"/>
+        <v>3.9249068905284452</v>
+      </c>
+      <c r="T26" s="81">
+        <f t="shared" si="14"/>
+        <v>1.5154323951168185</v>
+      </c>
+      <c r="U26" s="81">
+        <f t="shared" si="14"/>
+        <v>2.9937360975259701</v>
+      </c>
+      <c r="V26" s="81">
+        <f t="shared" si="14"/>
+        <v>-3.603789487130804</v>
+      </c>
+      <c r="W26" s="81">
+        <f t="shared" si="14"/>
+        <v>-1.5154323951168185</v>
+      </c>
+      <c r="X26" s="81">
+        <f t="shared" si="14"/>
+        <v>-2.132846094810755</v>
+      </c>
+      <c r="Y26" s="81">
+        <f t="shared" si="14"/>
+        <v>-4.3722040950610923</v>
+      </c>
+      <c r="Z26" s="81">
+        <f t="shared" si="14"/>
+        <v>-3.9682209740112704</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="P27" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="82">
+        <f>CORREL(Q25:Z25, Q26:Z26)</f>
+        <v>0.95367511918599113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:H3"/>
+  <mergeCells count="4">
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="C3:Z4"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1401,7 +3600,7 @@
   <dimension ref="A2:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,15 +3610,15 @@
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -1430,7 +3629,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1439,8 +3638,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
@@ -1450,150 +3649,150 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:19" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="K7" s="16" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="C9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="16" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="27"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1619,356 +3818,356 @@
   </sheetPr>
   <dimension ref="E3:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="24"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="15"/>
     </row>
     <row r="12" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="18" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="15"/>
     </row>
     <row r="19" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="15"/>
     </row>
     <row r="20" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
     </row>
     <row r="21" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
     </row>
     <row r="22" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="27"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="15"/>
     </row>
     <row r="23" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="30"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
